--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833CAE4E-4D59-4D63-85CF-4CD82F874E14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B3C08-A064-4422-8AF0-0D4D6BF36C98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -61,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,14 +355,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -363,5 +371,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>